--- a/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
+++ b/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD94C8C8-583B-4C52-97F8-45405298E3CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59DC59-ADE3-444E-A7DA-64853EBAE98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="167">
   <si>
     <t>전자회로실험
 프로젝트 결과 평가서</t>
@@ -436,70 +436,10 @@
     <t>황하현, 서동오</t>
   </si>
   <si>
-    <t>김도현, 김병용</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현우, 서준호</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤태진, 이상민</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>정해밀, 최재현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전효진, 권민서</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>안세진, 이민경</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>정현정, 이원석</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>A / 9</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>A / 10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종훈, 김남혁</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김병국, 김준서</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박형원, 신승철</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민규, 이상민, 황효준</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>조진영, 최지우</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄강준, 권영민</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>문세웅, 신나영</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>B / 8</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -508,15 +448,119 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>윤여만, 정인혁</t>
+    <t>A / 1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>채지훈, 황원준</t>
+    <t>A / 8</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>박제언, 최찬우, 정세훈</t>
+    <t>A / 11</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A / 12</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B / 7</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B / 6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B / 11</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>송해석, 전찬혁</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성규, 김건호</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민수, 김승환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태원, 나찬욱</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신민섭, 오무영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>정세찬, 정영석</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>황동건, 정상훈</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도연, 박신영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승우, 김현정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제형, 이종선</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>허채빈, 우세범</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>송승엽, 강산마루</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현, 김동형</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영수, 김주완</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>박동준, 박성현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>오제연, 유한민</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현빈, 최수영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민규, 손다혜, 손용훈</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민주, 김성민</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>노민호, 박서연</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수연, 이윤형</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>진보람, 최결</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -876,11 +920,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,15 +1124,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1034,8 +1154,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,13 +1169,46 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,10 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9897B8-B4AB-47E1-A29C-0614B4E1128B}">
-  <dimension ref="A1:F25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1381,30 +1543,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1416,13 +1578,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1432,50 +1594,50 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:6" s="42" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="B6" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>13</v>
@@ -1490,10 +1652,10 @@
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>13</v>
@@ -1508,108 +1670,118 @@
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>13</v>
@@ -1623,47 +1795,37 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>13</v>
@@ -1678,10 +1840,10 @@
     </row>
     <row r="19" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>13</v>
@@ -1695,11 +1857,11 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>151</v>
+      <c r="A20" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>13</v>
@@ -1712,75 +1874,165 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="B25" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="70"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F29" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+    <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A4"/>
@@ -1789,6 +2041,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1813,30 +2066,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1848,13 +2101,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +2117,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2183,7 +2436,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="44"/>
@@ -2204,7 +2457,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2225,30 +2478,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="56">
         <v>42170</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2260,13 +2513,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2529,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2723,14 +2976,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2745,6 +2998,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2765,30 +3019,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="56">
         <v>42541</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2800,13 +3054,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2816,7 +3070,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -3299,14 +3553,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3321,6 +3575,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3341,30 +3596,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="56">
         <v>42901</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3376,13 +3631,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3647,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -3893,14 +4148,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3915,5 +4170,6 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
+++ b/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59DC59-ADE3-444E-A7DA-64853EBAE98A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F33F3C-3DE3-4BED-BA90-20D439CF1612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1127,6 +1127,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,47 +1211,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,9 +1534,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1542,31 +1548,33 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1578,13 +1586,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1594,31 +1602,31 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" s="42" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>146</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -1630,9 +1638,9 @@
       <c r="E6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="60"/>
-    </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1658,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1668,7 +1676,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1712,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1730,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>139</v>
       </c>
@@ -1740,7 +1748,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>135</v>
       </c>
@@ -1758,7 +1766,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>140</v>
       </c>
@@ -1776,7 +1784,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>141</v>
       </c>
@@ -1794,7 +1802,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -1947,7 +1955,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -1965,40 +1973,40 @@
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" s="42" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="58" t="s">
+      <c r="C26" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="70"/>
+      <c r="C27" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
@@ -2021,14 +2029,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2066,30 +2074,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2101,13 +2109,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2125,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2436,14 +2444,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2478,30 +2486,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+      <c r="A2" s="70">
         <v>42170</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2513,13 +2521,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2529,7 +2537,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2976,14 +2984,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3019,30 +3027,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+      <c r="A2" s="70">
         <v>42541</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3054,13 +3062,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +3078,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -3553,14 +3561,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3596,30 +3604,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+      <c r="A2" s="70">
         <v>42901</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3631,13 +3639,13 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3647,7 +3655,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4148,14 +4156,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
+++ b/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F33F3C-3DE3-4BED-BA90-20D439CF1612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E68D4-6E6A-4FD2-88CA-75A97B89DAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="168">
   <si>
     <t>전자회로실험
 프로젝트 결과 평가서</t>
@@ -561,6 +561,11 @@
   </si>
   <si>
     <t>진보람, 최결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자회로실험
+프로젝트 결과 평가서</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -672,6 +677,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -997,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1169,6 +1182,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,24 +1194,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,11 +1230,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1556,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,26 +1568,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -1695,7 +1714,7 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1713,7 +1732,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2029,14 +2048,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2074,24 +2093,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -2444,14 +2463,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2486,24 +2505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
+      <c r="A2" s="72">
         <v>42170</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -2984,14 +3003,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3027,24 +3046,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
+      <c r="A2" s="72">
         <v>42541</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -3561,14 +3580,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="67"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3604,24 +3623,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
+      <c r="A2" s="72">
         <v>42901</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -4156,14 +4175,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
+++ b/attachments/전자회로실험 프로젝트 결과 평가서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7E68D4-6E6A-4FD2-88CA-75A97B89DAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F33F3C-3DE3-4BED-BA90-20D439CF1612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="167">
   <si>
     <t>전자회로실험
 프로젝트 결과 평가서</t>
@@ -561,11 +561,6 @@
   </si>
   <si>
     <t>진보람, 최결</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자회로실험
-프로젝트 결과 평가서</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -677,14 +672,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1010,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1182,59 +1169,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,7 +1537,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,26 +1549,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -1714,7 +1695,7 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1732,7 +1713,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2048,14 +2029,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2093,24 +2074,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -2463,14 +2444,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2505,24 +2486,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72">
+      <c r="A2" s="70">
         <v>42170</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -3003,14 +2984,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="67"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3046,24 +3027,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72">
+      <c r="A2" s="70">
         <v>42541</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -3580,14 +3561,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="67"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3623,24 +3604,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72">
+      <c r="A2" s="70">
         <v>42901</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
@@ -4175,14 +4156,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="67"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
